--- a/inputs/collated/kk_data.xlsx
+++ b/inputs/collated/kk_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmastala\OneDrive - Malawi-Liverpool Wellcome Research Programme\Documents\7_RESEARCH\3_Patrick Kalonde\social_media\socialmedia_floodmapping\inputs\collated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mlwtrust-my.sharepoint.com/personal/pkalonde_mlw_mw/Documents/Documents/GISfolder/projects/OSMMalawi/Proof_of_concept/socialmedia_floodmapping/inputs/collated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6761E3-8293-4D50-8DF9-4513ABA4C729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2F6761E3-8293-4D50-8DF9-4513ABA4C729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{406E0E7C-9EBD-4C9B-BF41-01A29FD554E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Precious" sheetId="1" r:id="rId1"/>
+    <sheet name="combined" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="283">
   <si>
     <t>SN</t>
   </si>
@@ -180,9 +180,6 @@
     <t>https://web.facebook.com/photo/?fbid=943845290432094&amp;set=pcb.943845390432084</t>
   </si>
   <si>
-    <t>3 March,2024</t>
-  </si>
-  <si>
     <t>https://web.facebook.com/photo/?fbid=10228195090195850&amp;set=a.3699031987777</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>28.02.2024 DWANGWA FLOODS. 
 📸: Creative Image 
 #flood #Nkhotakota #Malawi #malawinews #Africanews</t>
-  </si>
-  <si>
-    <t>29-February-2025</t>
   </si>
   <si>
     <t>What a joy to see companies, organisations and individuals assisting flood victims in Dwangwa. 
@@ -1722,7 +1716,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2064,23 +2058,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="94" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="94" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="97" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2106,1272 +2100,1083 @@
         <v>7</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="283.5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5">
       <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="14">
-        <v>45353</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="78.75">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2"/>
+      <c r="G2" s="4">
+        <v>45354</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.44583333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.5">
       <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.59583333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.5">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3"/>
+      <c r="G3" s="4">
+        <v>45351</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.68194444444444446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="93">
       <c r="A4" s="11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>135</v>
+        <v>189</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="14">
-        <v>45358</v>
+        <v>45476</v>
       </c>
       <c r="H4" s="15">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="63">
+        <v>0.34861111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="217.5">
       <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0.93055555555555558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="346.5">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="4">
+        <v>45374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="174">
       <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="63">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6"/>
+      <c r="G6" s="4">
+        <v>45369</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="174">
       <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7"/>
+      <c r="G7" s="4">
+        <v>45369</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="145">
+      <c r="A8" s="11">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8"/>
+      <c r="G8" s="4">
+        <v>45367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="87">
+      <c r="A9" s="11">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9"/>
+      <c r="G9" s="4">
+        <v>45366</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5">
+      <c r="A10" s="11">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10"/>
+      <c r="G10" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.74791666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.5">
+      <c r="A11" s="11">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11"/>
+      <c r="G11" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.68194444444444446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29">
+      <c r="A12" s="11">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12"/>
+      <c r="G12" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.74791666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="159.5">
+      <c r="A13" s="11">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13"/>
+      <c r="G13" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.6020833333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5">
+      <c r="A14" s="11">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14"/>
+      <c r="G14" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.74791666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5">
+      <c r="A15" s="11">
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15"/>
+      <c r="G15" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5">
+      <c r="A16" s="11">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16"/>
+      <c r="G16" s="4">
+        <v>45366</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="58">
+      <c r="A17" s="11">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17"/>
+      <c r="G17" s="4">
+        <v>45365</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.46944444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="174">
+      <c r="A18" s="11">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18"/>
+      <c r="G18" s="4">
+        <v>45365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="159.5">
+      <c r="A19" s="11">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19"/>
+      <c r="G19" s="4">
+        <v>45365</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="58">
+      <c r="A20" s="11">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20"/>
+      <c r="G20" s="4">
+        <v>45365</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.46944444444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="58">
+      <c r="A21" s="11">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21"/>
+      <c r="G21" s="4">
+        <v>45365</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.5">
+      <c r="A22" s="11">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22"/>
+      <c r="G22" s="4">
+        <v>45365</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.68055555555555558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5">
+      <c r="A23" s="11">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23"/>
+      <c r="G23" s="4">
+        <v>45364</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="159.5">
+      <c r="A24" s="11">
         <v>140</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0.39374999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="63">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.77986111111111112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="283.5">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24"/>
+      <c r="G24" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="174">
+      <c r="A25" s="11">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25"/>
+      <c r="G25" s="4">
+        <v>45364</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.6020833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.5">
+      <c r="A26" s="11">
         <v>143</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="14">
-        <v>45354</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.39305555555555555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="126">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="299.25">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26"/>
+      <c r="G26" s="4">
+        <v>45363</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="87">
+      <c r="A27" s="11">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27"/>
+      <c r="G27" s="4">
+        <v>45362</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.8305555555555556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="87">
+      <c r="A28" s="11">
         <v>147</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0.50416666666666665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="252">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28"/>
+      <c r="G28" s="4">
+        <v>45362</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.33055555555555555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="188.5">
+      <c r="A29" s="11">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29"/>
+      <c r="G29" s="4">
+        <v>45361</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.61597222222222225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="174">
+      <c r="A30" s="11">
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30"/>
+      <c r="G30" s="4">
+        <v>45361</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.5">
+      <c r="A31" s="11">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31"/>
+      <c r="G31" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.82847222222222228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="72.5">
+      <c r="A32" s="11">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32"/>
+      <c r="G32" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.56319444444444444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="159.5">
+      <c r="A33" s="11">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33"/>
+      <c r="G33" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.61388888888888893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="409.5">
+      <c r="A34" s="11">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34"/>
+      <c r="G34" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="409.5">
+      <c r="A35" s="11">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35"/>
+      <c r="G35" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.5">
+      <c r="A36" s="11">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36"/>
+      <c r="G36" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.82847222222222228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="159.5">
+      <c r="A37" s="11">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37"/>
+      <c r="G37" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.69722222222222219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="409.5">
+      <c r="A38" s="11">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38"/>
+      <c r="G38" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.88194444444444442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.5">
+      <c r="A39" s="11">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39"/>
+      <c r="G39" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.82847222222222228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="409.5">
+      <c r="A40" s="11">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40"/>
+      <c r="G40" s="4">
+        <v>45360</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.88194444444444442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.5">
+      <c r="A41" s="11">
         <v>150</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0.49930555555555556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.5">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41"/>
+      <c r="E41"/>
+      <c r="G41" s="4">
+        <v>45359</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.8618055555555556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="188.5">
+      <c r="A42" s="11">
         <v>153</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14">
-        <v>45352</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0.21111111111111111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="283.5">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14">
-        <v>45355</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0.84513888888888888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="220.5">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16">
-        <v>45351</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.64861111111111114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="78.75">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0.40069444444444446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="78.75">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0.40277777777777779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0.69374999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0.21180555555555555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="189">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0.83680555555555558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="94.5">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0.87708333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="141.75">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="204.75">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="B42" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0.66874999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="173.25">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.49652777777777779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.56180555555555556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="94.5">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0.87708333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="157.5">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0.58125000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="173.25">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.70347222222222228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="236.25">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0.66319444444444442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="409.5">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0.7368055555555556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="94.5">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="14">
-        <v>45476</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0.34861111111111109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="236.25">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0.68611111111111112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="267.75">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H34" s="15">
-        <v>0.88402777777777775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="94.5">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0.75138888888888888</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="252">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0.58402777777777781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="299.25">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0.50416666666666665</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="236.25">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H38" s="15">
-        <v>0.49930555555555556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="236.25">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="283.5">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="14">
-        <v>45354</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0.39305555555555555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="409.5">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="C42"/>
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42"/>
+      <c r="G42" s="4">
+        <v>45359</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.5">
+      <c r="A43" s="11">
+        <v>3</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H41" s="15">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="63">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="14">
-        <v>45353</v>
-      </c>
-      <c r="H42" s="15">
-        <v>0.81736111111111109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="362.25">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="14">
-        <v>45350</v>
+        <v>45358</v>
       </c>
       <c r="H43" s="15">
-        <v>0.84583333333333333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="78.75">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="108.5">
       <c r="A44" s="11">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>214</v>
+        <v>126</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="14">
-        <v>45351</v>
+        <v>45358</v>
       </c>
       <c r="H44" s="15">
-        <v>0.84930555555555554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="110.25">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="77.5">
       <c r="A45" s="11">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="14">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="H45" s="15">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="409.5">
+        <v>0.40069444444444446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="77.5">
       <c r="A46" s="11">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="14">
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="H46" s="15">
-        <v>0.71111111111111114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="204.75">
+        <v>0.40277777777777779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="155">
       <c r="A47" s="11">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="14">
-        <v>45351</v>
+        <v>45358</v>
       </c>
       <c r="H47" s="15">
-        <v>0.66874999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="63">
+        <v>0.58125000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="170.5">
       <c r="A48" s="11">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>228</v>
+        <v>126</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="14">
-        <v>45353</v>
+        <v>45358</v>
       </c>
       <c r="H48" s="15">
-        <v>0.81736111111111109</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="409.5">
       <c r="A49" s="11">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>135</v>
+        <v>189</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="14">
         <v>45358</v>
       </c>
       <c r="H49" s="15">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="78.75">
+        <v>0.7368055555555556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="93">
       <c r="A50" s="11">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>214</v>
+        <v>189</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="14">
-        <v>45351</v>
+        <v>45358</v>
       </c>
       <c r="H50" s="15">
-        <v>0.84930555555555554</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="110.25">
+        <v>0.75138888888888888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="409.5">
       <c r="A51" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="14">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="H51" s="15">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="63">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="409.5">
       <c r="A52" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="14">
         <v>45358</v>
       </c>
       <c r="H52" s="15">
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="220.5">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="46.5">
       <c r="A53" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>235</v>
+        <v>9</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="14">
-        <v>45351</v>
+        <v>45358</v>
       </c>
       <c r="H53" s="15">
-        <v>0.64861111111111114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="236.25">
+        <v>0.4201388888888889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="217">
       <c r="A54" s="11">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="14">
@@ -3381,42 +3186,42 @@
         <v>0.46111111111111114</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="173.25">
+    <row r="55" spans="1:8" ht="170.5">
       <c r="A55" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>243</v>
+        <v>9</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="14">
-        <v>45349</v>
+        <v>45358</v>
       </c>
       <c r="H55" s="15">
-        <v>0.8305555555555556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="173.25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="409.5">
       <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>185</v>
+        <v>61</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>9</v>
@@ -3426,2933 +3231,3140 @@
         <v>45358</v>
       </c>
       <c r="H56" s="15">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="283.5">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="130.5">
       <c r="A57" s="11">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57"/>
+      <c r="G57" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.68611111111111112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="275.5">
+      <c r="A58" s="11">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58"/>
+      <c r="G58" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="275.5">
+      <c r="A59" s="11">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59"/>
+      <c r="G59" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="130.5">
+      <c r="A60" s="11">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60"/>
+      <c r="G60" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.18611111111111112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="275.5">
+      <c r="A61" s="11">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61"/>
+      <c r="G61" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.5">
+      <c r="A62" s="11">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62"/>
+      <c r="G62" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.69097222222222221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="304.5">
+      <c r="A63" s="11">
         <v>154</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="14">
-        <v>45355</v>
-      </c>
-      <c r="H57" s="15">
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63"/>
+      <c r="G63" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H63" s="1">
         <v>0.84513888888888888</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="45">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="14">
-        <v>45355</v>
-      </c>
-      <c r="H58" s="15">
-        <v>0.64444444444444449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="220.5">
-      <c r="A59" s="11">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="11" t="s">
+    <row r="64" spans="1:8" ht="101.5">
+      <c r="A64" s="11">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64"/>
+      <c r="G64" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="159.5">
+      <c r="A65" s="11">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65"/>
+      <c r="G65" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.59861111111111109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="101.5">
+      <c r="A66" s="11">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66"/>
+      <c r="G66" s="4">
+        <v>45358</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.84861111111111109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="159.5">
+      <c r="A67" s="11">
+        <v>186</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="G59" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H59" s="15">
-        <v>0.33055555555555555</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="78.75">
-      <c r="A60" s="11">
-        <v>59</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="14">
-        <v>45351</v>
-      </c>
-      <c r="H60" s="15">
-        <v>0.34930555555555554</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="236.25">
-      <c r="A61" s="11">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="14">
-        <v>45356</v>
-      </c>
-      <c r="H61" s="15">
-        <v>0.23402777777777778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="409.5">
-      <c r="A62" s="11">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="14">
-        <v>45358</v>
-      </c>
-      <c r="H62" s="15">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="78.75">
-      <c r="A63" s="11">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="14">
-        <v>45355</v>
-      </c>
-      <c r="H63" s="15">
-        <v>0.29444444444444445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="362.25">
-      <c r="A64" s="11">
-        <v>63</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="14">
-        <v>45350</v>
-      </c>
-      <c r="H64" s="15">
-        <v>0.84583333333333333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="299.25">
-      <c r="A65" s="11">
-        <v>64</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="14">
-        <v>45352</v>
-      </c>
-      <c r="H65" s="15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="30">
-      <c r="A66" s="11">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66"/>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.44583333333333336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="105">
-      <c r="A67" s="11">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E67"/>
       <c r="G67" s="4">
-        <v>45366</v>
-      </c>
-      <c r="I67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="105">
+        <v>45358</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.68402777777777779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="130.5">
       <c r="A68" s="11">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C68"/>
       <c r="D68" s="3" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E68"/>
       <c r="G68" s="4">
-        <v>45350</v>
+        <v>45358</v>
       </c>
       <c r="H68" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="I68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="30">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="275.5">
       <c r="A69" s="11">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C69"/>
       <c r="D69" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E69"/>
       <c r="G69" s="4">
-        <v>45350</v>
+        <v>45358</v>
       </c>
       <c r="H69" s="1">
-        <v>0.60138888888888886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="135">
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.5">
       <c r="A70" s="11">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>54</v>
       </c>
       <c r="E70"/>
       <c r="G70" s="4">
-        <v>45350</v>
+        <v>45357</v>
       </c>
       <c r="H70" s="1">
-        <v>0.72777777777777775</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75">
+        <v>0.62916666666666665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.5">
       <c r="A71" s="11">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E71"/>
       <c r="G71" s="4">
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="H71" s="1">
-        <v>0.74305555555555558</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="60">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="I71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="145">
       <c r="A72" s="11">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E72"/>
       <c r="G72" s="4">
-        <v>45350</v>
+        <v>45357</v>
       </c>
       <c r="H72" s="1">
-        <v>0.80625000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75">
+        <v>0.76180555555555551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="188.5">
       <c r="A73" s="11">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E73"/>
       <c r="G73" s="4">
-        <v>45350</v>
+        <v>45357</v>
       </c>
       <c r="H73" s="1">
-        <v>0.70277777777777772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.5">
       <c r="A74" s="11">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>43</v>
+        <v>172</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>15</v>
       </c>
       <c r="E74"/>
       <c r="G74" s="4">
-        <v>45364</v>
+        <v>45357</v>
       </c>
       <c r="H74" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30">
+        <v>0.65138888888888891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="145">
       <c r="A75" s="11">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C75"/>
       <c r="D75" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E75"/>
       <c r="G75" s="4">
-        <v>45351</v>
+        <v>45357</v>
       </c>
       <c r="H75" s="1">
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75">
+        <v>0.76180555555555551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="58">
       <c r="A76" s="11">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" t="s">
-        <v>47</v>
+        <v>172</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E76"/>
       <c r="G76" s="4">
-        <v>45366</v>
+        <v>45357</v>
       </c>
       <c r="H76" s="1">
-        <v>0.74791666666666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75">
+        <v>0.83263888888888893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="232">
       <c r="A77" s="11">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" t="s">
-        <v>49</v>
+        <v>172</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="E77"/>
       <c r="G77" s="4">
-        <v>45360</v>
+        <v>45357</v>
       </c>
       <c r="H77" s="1">
-        <v>0.82847222222222228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.5">
       <c r="A78" s="11">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C78"/>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="E78"/>
       <c r="G78" s="4">
-        <v>45350</v>
+        <v>45357</v>
       </c>
       <c r="H78" s="1">
-        <v>0.86736111111111114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="232.5">
       <c r="A79" s="11">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79"/>
-      <c r="G79" s="4">
-        <v>45360</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0.56319444444444444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75">
+        <v>60</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="14">
+        <v>45356</v>
+      </c>
+      <c r="H79" s="15">
+        <v>0.23402777777777778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="101.5">
       <c r="A80" s="11">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E80"/>
       <c r="G80" s="4">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="H80" s="1">
-        <v>0.62916666666666665</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75">
+        <v>0.87013888888888891</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="58">
       <c r="A81" s="11">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" t="s">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="E81"/>
       <c r="G81" s="4">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="H81" s="1">
-        <v>0.66527777777777775</v>
-      </c>
-      <c r="I81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="180">
+        <v>0.59861111111111109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="101.5">
       <c r="A82" s="11">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C82"/>
       <c r="D82" s="3" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E82"/>
       <c r="G82" s="4">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75">
+        <v>45356</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.87013888888888891</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="43.5">
       <c r="A83" s="11">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" t="s">
-        <v>61</v>
+        <v>172</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83"/>
       <c r="G83" s="4">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="H83" s="1">
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="409.5">
+        <v>0.82152777777777775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="98.5">
       <c r="A84" s="11">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
+        <v>172</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="E84"/>
       <c r="G84" s="4">
-        <v>45366</v>
+        <v>45356</v>
       </c>
       <c r="H84" s="1">
-        <v>0.68194444444444446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="375">
+        <v>0.79513888888888884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="101.5">
       <c r="A85" s="11">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C85"/>
       <c r="D85" s="3" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="E85"/>
-    </row>
-    <row r="86" spans="1:9" ht="150">
+      <c r="G85" s="4">
+        <v>45356</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.8569444444444444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="279">
       <c r="A86" s="11">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86"/>
-      <c r="G86" s="4">
-        <v>45357</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0.76180555555555551</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="90">
+        <v>13</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="14">
+        <v>45355</v>
+      </c>
+      <c r="H86" s="15">
+        <v>0.84513888888888888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="108.5">
       <c r="A87" s="11">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87"/>
-      <c r="G87" s="4">
-        <v>45362</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0.8305555555555556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75">
+        <v>44</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="14">
+        <v>45355</v>
+      </c>
+      <c r="H87" s="15">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="108.5">
       <c r="A88" s="11">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" t="s">
-        <v>61</v>
-      </c>
-      <c r="E88"/>
-      <c r="G88" s="4">
-        <v>45353</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="150">
+        <v>50</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="14">
+        <v>45355</v>
+      </c>
+      <c r="H88" s="15">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="279">
       <c r="A89" s="11">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89"/>
-      <c r="G89" s="4">
-        <v>45358</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0.68611111111111112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75">
+        <v>56</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="14">
+        <v>45355</v>
+      </c>
+      <c r="H89" s="15">
+        <v>0.84513888888888888</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="43.5">
       <c r="A90" s="11">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>71</v>
-      </c>
-      <c r="E90"/>
-      <c r="G90" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0.90555555555555556</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="195">
+        <v>57</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="14">
+        <v>45355</v>
+      </c>
+      <c r="H90" s="15">
+        <v>0.64444444444444449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="77.5">
       <c r="A91" s="11">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E91"/>
-      <c r="G91" s="4">
-        <v>45369</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0.48472222222222222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="150">
+        <v>62</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="14">
+        <v>45355</v>
+      </c>
+      <c r="H91" s="15">
+        <v>0.29444444444444445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.5">
       <c r="A92" s="11">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
       </c>
       <c r="E92"/>
       <c r="G92" s="4">
-        <v>45352</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0.51527777777777772</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="60">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="246.5">
       <c r="A93" s="11">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C93"/>
       <c r="D93" s="3" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="E93"/>
       <c r="G93" s="4">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="H93" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="180">
+        <v>0.77986111111111112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="87">
       <c r="A94" s="11">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C94"/>
       <c r="D94" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="E94"/>
       <c r="G94" s="4">
-        <v>45360</v>
+        <v>45355</v>
       </c>
       <c r="H94" s="1">
-        <v>0.61388888888888893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="120">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="263.5">
       <c r="A95" s="11">
+        <v>8</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="14">
+        <v>45354</v>
+      </c>
+      <c r="H95" s="15">
+        <v>0.39305555555555555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="263.5">
+      <c r="A96" s="11">
+        <v>39</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="14">
+        <v>45354</v>
+      </c>
+      <c r="H96" s="15">
+        <v>0.39305555555555555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="116">
+      <c r="A97" s="11">
         <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95"/>
-      <c r="G95" s="4">
-        <v>45354</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0.5756944444444444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="210">
-      <c r="A96" s="11">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E96"/>
-      <c r="G96" s="4">
-        <v>45357</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="60">
-      <c r="A97" s="11">
-        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E97"/>
       <c r="G97" s="4">
-        <v>45328</v>
+        <v>45354</v>
       </c>
       <c r="H97" s="1">
-        <v>0.81597222222222221</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="60">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="116">
       <c r="A98" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E98"/>
       <c r="G98" s="4">
-        <v>45365</v>
+        <v>45354</v>
       </c>
       <c r="H98" s="1">
-        <v>0.46944444444444444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="409.5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="29">
       <c r="A99" s="11">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C99"/>
       <c r="D99" s="3" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E99"/>
       <c r="G99" s="4">
-        <v>45360</v>
+        <v>45354</v>
       </c>
       <c r="H99" s="1">
-        <v>0.38194444444444442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="330">
+        <v>0.93541666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="116">
       <c r="A100" s="11">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C100"/>
       <c r="D100" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E100"/>
       <c r="G100" s="4">
-        <v>45358</v>
+        <v>45354</v>
       </c>
       <c r="H100" s="1">
-        <v>0.86527777777777781</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="105">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="116">
       <c r="A101" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C101"/>
       <c r="D101" s="3" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E101"/>
       <c r="G101" s="4">
-        <v>45356</v>
+        <v>45354</v>
       </c>
       <c r="H101" s="1">
-        <v>0.87013888888888891</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="120">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="188.5">
       <c r="A102" s="11">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C102"/>
       <c r="D102" s="3" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="E102"/>
       <c r="G102" s="4">
         <v>45354</v>
       </c>
       <c r="H102" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="87">
       <c r="A103" s="11">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" t="s">
-        <v>93</v>
+        <v>172</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E103"/>
       <c r="G103" s="4">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="195">
+        <v>45354</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.66319444444444442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="279">
       <c r="A104" s="11">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="14">
+        <v>45353</v>
+      </c>
+      <c r="H104" s="15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="62">
+      <c r="A105" s="11">
+        <v>41</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="14">
+        <v>45353</v>
+      </c>
+      <c r="H105" s="15">
+        <v>0.81736111111111109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="62">
+      <c r="A106" s="11">
+        <v>47</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="14">
+        <v>45353</v>
+      </c>
+      <c r="H106" s="15">
+        <v>0.81736111111111109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.5">
+      <c r="A107" s="11">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s">
         <v>23</v>
       </c>
-      <c r="C104"/>
-      <c r="D104" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E104"/>
-      <c r="G104" s="4">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="11">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105"/>
-      <c r="D105" t="s">
-        <v>96</v>
-      </c>
-      <c r="E105"/>
-      <c r="G105" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0.64652777777777781</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="45">
-      <c r="A106" s="11">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106"/>
-      <c r="D106" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E106"/>
-      <c r="G106" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="60">
-      <c r="A107" s="11">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107"/>
-      <c r="D107" s="3" t="s">
-        <v>98</v>
+      <c r="C107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" t="s">
+        <v>60</v>
       </c>
       <c r="E107"/>
       <c r="G107" s="4">
-        <v>45356</v>
+        <v>45353</v>
       </c>
       <c r="H107" s="1">
-        <v>0.59861111111111109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="120">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.5">
       <c r="A108" s="11">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108"/>
-      <c r="D108" s="3" t="s">
-        <v>99</v>
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" t="s">
+        <v>60</v>
       </c>
       <c r="E108"/>
       <c r="G108" s="4">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="H108" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="45">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="159.5">
       <c r="A109" s="11">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C109"/>
       <c r="D109" s="3" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="E109"/>
       <c r="G109" s="4">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="H109" s="1">
-        <v>0.78333333333333333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="409.5">
+        <v>0.5493055555555556</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="116">
       <c r="A110" s="11">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C110"/>
       <c r="D110" s="3" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="E110"/>
-      <c r="G110" t="s">
-        <v>101</v>
+      <c r="G110" s="4">
+        <v>45353</v>
       </c>
       <c r="H110" s="1">
-        <v>0.68194444444444446</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="30">
+        <v>0.81041666666666667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="58">
       <c r="A111" s="11">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="C111"/>
       <c r="D111" s="3" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="E111"/>
       <c r="G111" s="4">
-        <v>45354</v>
+        <v>45353</v>
       </c>
       <c r="H111" s="1">
-        <v>0.93541666666666667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="30">
+        <v>0.67291666666666672</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.5">
       <c r="A112" s="11">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="C112"/>
-      <c r="D112" s="3" t="s">
-        <v>103</v>
+      <c r="D112" t="s">
+        <v>264</v>
       </c>
       <c r="E112"/>
       <c r="G112" s="4">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="H112" s="1">
-        <v>0.7416666666666667</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.75">
+        <v>0.89652777777777781</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="409.5">
       <c r="A113" s="11">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C113"/>
-      <c r="D113" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113"/>
-      <c r="G113" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H113" s="1">
+        <v>12</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="14">
+        <v>45352</v>
+      </c>
+      <c r="H113" s="15">
+        <v>0.21111111111111111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="409.5">
+      <c r="A114" s="11">
+        <v>45</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="14">
+        <v>45352</v>
+      </c>
+      <c r="H114" s="15">
         <v>0.71111111111111114</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30">
-      <c r="A114" s="11">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>95</v>
-      </c>
-      <c r="C114"/>
-      <c r="D114" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114"/>
-      <c r="G114" s="4">
-        <v>45366</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0.74791666666666667</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="150">
+    <row r="115" spans="1:8" ht="263.5">
       <c r="A115" s="11">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>95</v>
-      </c>
-      <c r="C115"/>
-      <c r="D115" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115"/>
-      <c r="G115" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0.68541666666666667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="409.5">
+        <v>64</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="14">
+        <v>45352</v>
+      </c>
+      <c r="H115" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="130.5">
       <c r="A116" s="11">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116"/>
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="D116" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E116"/>
       <c r="G116" s="4">
-        <v>45360</v>
+        <v>45352</v>
       </c>
       <c r="H116" s="1">
-        <v>0.38194444444444442</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75">
+        <v>0.51527777777777772</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="145">
       <c r="A117" s="11">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C117"/>
-      <c r="D117" t="s">
-        <v>107</v>
+      <c r="D117" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="E117"/>
       <c r="G117" s="4">
-        <v>44985</v>
+        <v>45352</v>
       </c>
       <c r="H117" s="1">
-        <v>0.65277777777777779</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75">
+        <v>0.51527777777777772</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="87">
       <c r="A118" s="11">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C118"/>
-      <c r="D118" t="s">
-        <v>108</v>
+      <c r="D118" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="E118"/>
       <c r="G118" s="4">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="H118" s="1">
-        <v>0.70902777777777781</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="217.5">
       <c r="A119" s="11">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C119"/>
-      <c r="D119" t="s">
-        <v>109</v>
+      <c r="D119" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="E119"/>
       <c r="G119" s="4">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="H119" s="1">
-        <v>0.80347222222222225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75">
+        <v>0.78055555555555556</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="341">
       <c r="A120" s="11">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120"/>
-      <c r="D120" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120"/>
-      <c r="G120" s="4">
+        <v>5</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="14">
         <v>45351</v>
       </c>
-      <c r="H120" s="1">
-        <v>0.67638888888888893</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75">
+      <c r="H120" s="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="46.5">
       <c r="A121" s="11">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121"/>
-      <c r="D121" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121"/>
-      <c r="G121" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0.8520833333333333</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75">
+        <v>6</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H121" s="15">
+        <v>0.39374999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="62">
       <c r="A122" s="11">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122"/>
-      <c r="D122" t="s">
-        <v>112</v>
-      </c>
-      <c r="E122"/>
-      <c r="G122" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H122" s="1">
-        <v>0.91874999999999996</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="330">
+        <v>7</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H122" s="15">
+        <v>0.77986111111111112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="263.5">
       <c r="A123" s="11">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123"/>
-      <c r="D123" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E123"/>
-      <c r="G123" s="4">
-        <v>45358</v>
-      </c>
-      <c r="H123" s="1">
-        <v>0.86527777777777781</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75">
+        <v>10</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H123" s="15">
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="217">
       <c r="A124" s="11">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124"/>
-      <c r="D124" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124"/>
-      <c r="G124" s="4">
-        <v>45360</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0.82847222222222228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="105">
+        <v>11</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H124" s="15">
+        <v>0.49930555555555556</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="201.5">
       <c r="A125" s="11">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125"/>
-      <c r="D125" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E125"/>
-      <c r="G125" s="4">
+        <v>14</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="16">
         <v>45351</v>
       </c>
-      <c r="H125" s="1">
-        <v>0.35555555555555557</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75">
+      <c r="H125" s="15">
+        <v>0.64861111111111114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="43.5">
       <c r="A126" s="11">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126"/>
-      <c r="D126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126"/>
-      <c r="G126" s="4">
+        <v>18</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="14">
         <v>45351</v>
       </c>
-      <c r="H126" s="1">
-        <v>0.21527777777777779</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="30">
+      <c r="H126" s="15">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="201.5">
       <c r="A127" s="11">
+        <v>22</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127"/>
-      <c r="D127" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127"/>
-      <c r="G127" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H127" s="1">
-        <v>0.6694444444444444</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.75">
+      <c r="C127" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H127" s="15">
+        <v>0.66874999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="170.5">
       <c r="A128" s="11">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128"/>
-      <c r="D128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E128"/>
-      <c r="G128" s="4">
+        <v>23</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="11"/>
+      <c r="G128" s="14">
         <v>45351</v>
       </c>
-      <c r="H128" s="1">
-        <v>0.86527777777777781</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.75">
+      <c r="H128" s="15">
+        <v>0.49652777777777779</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="217">
       <c r="A129" s="11">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>95</v>
-      </c>
-      <c r="C129"/>
-      <c r="D129" t="s">
-        <v>118</v>
-      </c>
-      <c r="E129"/>
-      <c r="G129" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H129" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75">
+        <v>29</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H129" s="15">
+        <v>0.66319444444444442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="217">
       <c r="A130" s="11">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130"/>
-      <c r="D130" t="s">
-        <v>119</v>
-      </c>
-      <c r="E130"/>
-      <c r="G130" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H130" s="1">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="195">
+        <v>32</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H130" s="15">
+        <v>0.68611111111111112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="232.5">
       <c r="A131" s="11">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131"/>
-      <c r="D131" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E131"/>
-      <c r="G131" s="4">
-        <v>45347</v>
-      </c>
-      <c r="H131" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="240">
+        <v>33</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="11"/>
+      <c r="G131" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H131" s="15">
+        <v>0.88402777777777775</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="217">
       <c r="A132" s="11">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>95</v>
-      </c>
-      <c r="C132"/>
-      <c r="D132" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E132"/>
-      <c r="G132" s="4">
-        <v>45329</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75">
+        <v>35</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H132" s="15">
+        <v>0.58402777777777781</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="263.5">
       <c r="A133" s="11">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>95</v>
-      </c>
-      <c r="C133"/>
-      <c r="D133" t="s">
-        <v>122</v>
-      </c>
-      <c r="E133"/>
-      <c r="G133" s="4">
+        <v>36</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="14">
         <v>45351</v>
       </c>
-      <c r="H133" s="1">
-        <v>0.90277777777777779</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75">
+      <c r="H133" s="15">
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="201.5">
       <c r="A134" s="11">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134"/>
-      <c r="D134" t="s">
-        <v>123</v>
-      </c>
-      <c r="E134"/>
-      <c r="G134" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H134" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.75">
+        <v>37</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H134" s="15">
+        <v>0.49930555555555556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="232.5">
       <c r="A135" s="11">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>95</v>
-      </c>
-      <c r="C135"/>
-      <c r="D135" t="s">
-        <v>124</v>
-      </c>
-      <c r="E135"/>
-      <c r="G135" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H135" s="1">
-        <v>0.89097222222222228</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="60">
+        <v>38</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H135" s="15">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="77.5">
       <c r="A136" s="11">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136"/>
-      <c r="D136" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E136"/>
-      <c r="G136" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H136" s="1">
-        <v>0.85972222222222228</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="240">
+        <v>43</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H136" s="15">
+        <v>0.84930555555555554</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="201.5">
       <c r="A137" s="11">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>95</v>
-      </c>
-      <c r="C137"/>
-      <c r="D137" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E137"/>
-      <c r="G137" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H137" s="1">
-        <v>0.33124999999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.75">
+        <v>46</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H137" s="15">
+        <v>0.66874999999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="77.5">
       <c r="A138" s="11">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138"/>
-      <c r="D138" t="s">
-        <v>127</v>
-      </c>
-      <c r="E138"/>
-      <c r="G138" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H138" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="225">
+        <v>49</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H138" s="15">
+        <v>0.84930555555555554</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="201.5">
       <c r="A139" s="11">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>174</v>
-      </c>
-      <c r="C139"/>
-      <c r="D139" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139"/>
-      <c r="G139" s="4">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="225">
+        <v>52</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H139" s="15">
+        <v>0.64861111111111114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="217">
       <c r="A140" s="11">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>174</v>
-      </c>
-      <c r="C140"/>
-      <c r="D140" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:8" ht="180">
+        <v>58</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G140" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H140" s="15">
+        <v>0.33055555555555555</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="77.5">
       <c r="A141" s="11">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>174</v>
-      </c>
-      <c r="C141"/>
-      <c r="D141" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E141"/>
-      <c r="G141" s="4">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="150">
+        <v>59</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="14">
+        <v>45351</v>
+      </c>
+      <c r="H141" s="15">
+        <v>0.34930555555555554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.5">
       <c r="A142" s="11">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
-      </c>
-      <c r="C142"/>
-      <c r="D142" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" t="s">
+        <v>36</v>
       </c>
       <c r="E142"/>
       <c r="G142" s="4">
-        <v>45358</v>
+        <v>45351</v>
       </c>
       <c r="H142" s="1">
-        <v>0.18611111111111112</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="409.5">
+        <v>0.74305555555555558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29">
       <c r="A143" s="11">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143"/>
+        <v>23</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D143" s="3" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="E143"/>
       <c r="G143" s="4">
         <v>45351</v>
       </c>
       <c r="H143" s="1">
-        <v>0.68194444444444446</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="45">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="58">
       <c r="A144" s="11">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144"/>
+        <v>23</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D144" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E144"/>
       <c r="G144" s="4">
-        <v>45363</v>
+        <v>45351</v>
       </c>
       <c r="H144" s="1">
-        <v>0.52361111111111114</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="60">
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.5">
       <c r="A145" s="11">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C145"/>
-      <c r="D145" s="3" t="s">
-        <v>17</v>
+      <c r="D145" t="s">
+        <v>95</v>
       </c>
       <c r="E145"/>
       <c r="G145" s="4">
         <v>45351</v>
       </c>
       <c r="H145" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="330">
+        <v>0.64652777777777781</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="43.5">
       <c r="A146" s="11">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C146"/>
       <c r="D146" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E146"/>
       <c r="G146" s="4">
-        <v>45358</v>
+        <v>45351</v>
       </c>
       <c r="H146" s="1">
-        <v>0.86527777777777781</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75">
+        <v>0.79513888888888884</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="43.5">
       <c r="A147" s="11">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C147"/>
-      <c r="D147" t="s">
-        <v>15</v>
+      <c r="D147" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E147"/>
       <c r="G147" s="4">
-        <v>45357</v>
+        <v>45351</v>
       </c>
       <c r="H147" s="1">
-        <v>0.65138888888888891</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="90">
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29">
       <c r="A148" s="11">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C148"/>
       <c r="D148" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E148"/>
       <c r="G148" s="4">
-        <v>45362</v>
+        <v>45351</v>
       </c>
       <c r="H148" s="1">
-        <v>0.33055555555555555</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="180">
+        <v>0.7416666666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.5">
       <c r="A149" s="11">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C149"/>
-      <c r="D149" s="3" t="s">
-        <v>78</v>
+      <c r="D149" t="s">
+        <v>106</v>
       </c>
       <c r="E149"/>
       <c r="G149" s="4">
-        <v>45360</v>
+        <v>45351</v>
       </c>
       <c r="H149" s="1">
-        <v>0.69722222222222219</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="195">
+        <v>0.70902777777777781</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.5">
       <c r="A150" s="11">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C150"/>
-      <c r="D150" s="3" t="s">
-        <v>203</v>
+      <c r="D150" t="s">
+        <v>108</v>
       </c>
       <c r="E150"/>
       <c r="G150" s="4">
-        <v>45366</v>
+        <v>45351</v>
       </c>
       <c r="H150" s="1">
-        <v>0.6020833333333333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15.75">
+        <v>0.67638888888888893</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="87">
       <c r="A151" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C151"/>
+      <c r="D151" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="E151"/>
       <c r="G151" s="4">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="H151" s="1">
-        <v>0.8618055555555556</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75">
+        <v>0.35555555555555557</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.5">
       <c r="A152" s="11">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C152"/>
       <c r="D152" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="E152"/>
       <c r="G152" s="4">
-        <v>45358</v>
+        <v>45351</v>
       </c>
       <c r="H152" s="1">
-        <v>0.69097222222222221</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="165">
+        <v>0.21527777777777779</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.5">
       <c r="A153" s="11">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C153"/>
-      <c r="D153" s="3" t="s">
-        <v>212</v>
+      <c r="D153" t="s">
+        <v>115</v>
       </c>
       <c r="E153"/>
       <c r="G153" s="4">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="H153" s="1">
-        <v>0.51527777777777772</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="210">
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.5">
       <c r="A154" s="11">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C154"/>
-      <c r="D154" s="3" t="s">
-        <v>82</v>
+      <c r="D154" t="s">
+        <v>120</v>
       </c>
       <c r="E154"/>
       <c r="G154" s="4">
-        <v>45359</v>
+        <v>45351</v>
       </c>
       <c r="H154" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="345">
+        <v>0.90277777777777779</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="409.5">
       <c r="A155" s="11">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C155"/>
       <c r="D155" s="3" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="E155"/>
       <c r="G155" s="4">
-        <v>45358</v>
+        <v>45351</v>
       </c>
       <c r="H155" s="1">
-        <v>0.84513888888888888</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="105">
+        <v>0.68194444444444446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="58">
       <c r="A156" s="11">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C156"/>
       <c r="D156" s="3" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="E156"/>
       <c r="G156" s="4">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="H156" s="1">
-        <v>0.67708333333333337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="409.5">
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="333.5">
       <c r="A157" s="11">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C157"/>
       <c r="D157" s="3" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="E157"/>
       <c r="G157" s="4">
-        <v>45360</v>
+        <v>45351</v>
       </c>
       <c r="H157" s="1">
-        <v>0.88194444444444442</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="165">
+        <v>0.75694444444444442</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="159.5">
       <c r="A158" s="11">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C158"/>
       <c r="D158" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E158"/>
       <c r="G158" s="4">
-        <v>45365</v>
+        <v>45351</v>
       </c>
       <c r="H158" s="1">
-        <v>0.70625000000000004</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="150">
+        <v>0.5395833333333333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="130.5">
       <c r="A159" s="11">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C159"/>
       <c r="D159" s="3" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="E159"/>
       <c r="G159" s="4">
-        <v>45357</v>
+        <v>45351</v>
       </c>
       <c r="H159" s="1">
-        <v>0.76180555555555551</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="60">
+        <v>0.84166666666666667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="246.5">
       <c r="A160" s="11">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C160"/>
       <c r="D160" s="3" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="E160"/>
       <c r="G160" s="4">
-        <v>45365</v>
+        <v>45351</v>
       </c>
       <c r="H160" s="1">
-        <v>0.46944444444444444</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="120">
+        <v>0.89027777777777772</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="87">
       <c r="A161" s="11">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B161" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C161"/>
       <c r="D161" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E161"/>
       <c r="G161" s="4">
-        <v>45354</v>
+        <v>45351</v>
       </c>
       <c r="H161" s="1">
-        <v>0.5756944444444444</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="225">
+        <v>0.85555555555555551</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="43.5">
       <c r="A162" s="11">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C162"/>
       <c r="D162" s="3" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="E162"/>
       <c r="G162" s="4">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="H162" s="1">
-        <v>0.78055555555555556</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="195">
+        <v>0.79513888888888884</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="29">
       <c r="A163" s="11">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C163"/>
       <c r="D163" s="3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E163"/>
       <c r="G163" s="4">
-        <v>45369</v>
+        <v>45351</v>
       </c>
       <c r="H163" s="1">
-        <v>0.48472222222222222</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="255">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="29">
       <c r="A164" s="11">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C164"/>
       <c r="D164" s="3" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="E164"/>
       <c r="G164" s="4">
-        <v>45355</v>
+        <v>45351</v>
       </c>
       <c r="H164" s="1">
-        <v>0.77986111111111112</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="75">
+        <v>0.74027777777777781</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="409.5">
       <c r="A165" s="11">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C165"/>
       <c r="D165" s="3" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="E165"/>
       <c r="G165" s="4">
-        <v>45365</v>
+        <v>45351</v>
       </c>
       <c r="H165" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="60">
+        <v>0.68194444444444446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="333.5">
       <c r="A166" s="11">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C166"/>
       <c r="D166" s="3" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="E166"/>
       <c r="G166" s="4">
-        <v>45357</v>
+        <v>45351</v>
       </c>
       <c r="H166" s="1">
-        <v>0.83263888888888893</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="15.75">
+        <v>0.75694444444444442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.5">
       <c r="A167" s="11">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E167"/>
       <c r="G167" s="4">
-        <v>45360</v>
+        <v>45351</v>
       </c>
       <c r="H167" s="1">
-        <v>0.82847222222222228</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="105">
+        <v>0.86527777777777781</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.5">
       <c r="A168" s="11">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C168"/>
-      <c r="D168" s="3" t="s">
-        <v>90</v>
+      <c r="D168" t="s">
+        <v>120</v>
       </c>
       <c r="E168"/>
       <c r="G168" s="4">
-        <v>45356</v>
+        <v>45351</v>
       </c>
       <c r="H168" s="1">
-        <v>0.87013888888888891</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="120">
+        <v>0.90277777777777779</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="203">
       <c r="A169" s="11">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C169"/>
       <c r="D169" s="3" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E169"/>
       <c r="G169" s="4">
-        <v>45354</v>
+        <v>45351</v>
       </c>
       <c r="H169" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="210">
+        <v>0.83125000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="77.5">
       <c r="A170" s="11">
+        <v>2</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="11"/>
+      <c r="G170" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H170" s="15">
+        <v>0.59583333333333333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="62">
+      <c r="A171" s="11">
+        <v>4</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="11"/>
+      <c r="G171" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H171" s="15">
+        <v>0.93055555555555558</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="29">
+      <c r="A172" s="11">
+        <v>17</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="11"/>
+      <c r="G172" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H172" s="15">
+        <v>0.69374999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="186">
+      <c r="A173" s="11">
+        <v>19</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="11"/>
+      <c r="G173" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H173" s="15">
+        <v>0.83680555555555558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="93">
+      <c r="A174" s="11">
+        <v>20</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="11"/>
+      <c r="G174" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H174" s="15">
+        <v>0.87708333333333333</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="124">
+      <c r="A175" s="11">
+        <v>21</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170"/>
-      <c r="D170" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E170"/>
-      <c r="G170" s="4">
-        <v>45354</v>
-      </c>
-      <c r="H170" s="1">
-        <v>0.80625000000000002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="120">
-      <c r="A171" s="11">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171"/>
-      <c r="D171" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E171"/>
-      <c r="G171" s="4">
-        <v>45354</v>
-      </c>
-      <c r="H171" s="1">
-        <v>0.66319444444444442</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="195">
-      <c r="A172" s="11">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172"/>
-      <c r="D172" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E172"/>
-      <c r="G172" s="4">
-        <v>45361</v>
-      </c>
-      <c r="H172" s="1">
-        <v>0.61597222222222225</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="45">
-      <c r="A173" s="11">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173"/>
-      <c r="D173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E173"/>
-      <c r="G173" s="4">
-        <v>45356</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0.82152777777777775</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="105">
-      <c r="A174" s="11">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174"/>
-      <c r="D174" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E174"/>
-      <c r="G174" s="4">
-        <v>45358</v>
-      </c>
-      <c r="H174" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="285">
-      <c r="A175" s="11">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>174</v>
-      </c>
-      <c r="C175"/>
-      <c r="D175" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E175"/>
-      <c r="G175" s="4">
-        <v>45357</v>
-      </c>
-      <c r="H175" s="1">
-        <v>0.55625000000000002</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="360">
+      <c r="D175" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="11"/>
+      <c r="G175" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="43.5">
       <c r="A176" s="11">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>174</v>
-      </c>
-      <c r="C176"/>
-      <c r="D176" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E176"/>
-      <c r="G176" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H176" s="1">
-        <v>0.75694444444444442</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="180">
+        <v>24</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="11"/>
+      <c r="G176" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H176" s="15">
+        <v>0.56180555555555556</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="93">
       <c r="A177" s="11">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>174</v>
-      </c>
-      <c r="C177"/>
-      <c r="D177" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E177"/>
-      <c r="G177" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H177" s="1">
-        <v>0.5395833333333333</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="180">
+        <v>25</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="11"/>
+      <c r="G177" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H177" s="15">
+        <v>0.87708333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="43.5">
       <c r="A178" s="11">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>174</v>
-      </c>
-      <c r="C178"/>
-      <c r="D178" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E178"/>
-      <c r="G178" s="4">
-        <v>45353</v>
-      </c>
-      <c r="H178" s="1">
-        <v>0.5493055555555556</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="165">
+        <v>28</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="11"/>
+      <c r="G178" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H178" s="15">
+        <v>0.70347222222222228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="356.5">
       <c r="A179" s="11">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>174</v>
-      </c>
-      <c r="C179"/>
-      <c r="D179" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E179"/>
-      <c r="G179" s="4">
-        <v>45358</v>
-      </c>
-      <c r="H179" s="1">
-        <v>0.59861111111111109</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="105">
+        <v>42</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="11"/>
+      <c r="G179" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H179" s="15">
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="356.5">
       <c r="A180" s="11">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>174</v>
-      </c>
-      <c r="C180"/>
-      <c r="D180" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180"/>
-      <c r="G180" s="4">
-        <v>45358</v>
-      </c>
-      <c r="H180" s="1">
-        <v>0.84861111111111109</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="135">
+        <v>63</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="11"/>
+      <c r="G180" s="14">
+        <v>45350</v>
+      </c>
+      <c r="H180" s="15">
+        <v>0.84583333333333333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="87">
       <c r="A181" s="11">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
-      </c>
-      <c r="C181"/>
+        <v>23</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D181" s="3" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="E181"/>
       <c r="G181" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H181" s="1">
-        <v>0.84166666666666667</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="15.75">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="29">
       <c r="A182" s="11">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
-      </c>
-      <c r="C182"/>
-      <c r="D182" t="s">
-        <v>242</v>
+        <v>23</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E182"/>
       <c r="G182" s="4">
-        <v>45357</v>
+        <v>45350</v>
       </c>
       <c r="H182" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="100.5">
+        <v>0.60138888888888886</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="130.5">
       <c r="A183" s="11">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
-      </c>
-      <c r="C183"/>
-      <c r="D183" s="6" t="s">
-        <v>244</v>
+        <v>23</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E183"/>
       <c r="G183" s="4">
-        <v>45356</v>
+        <v>45350</v>
       </c>
       <c r="H183" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="270">
+        <v>0.72777777777777775</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="58">
       <c r="A184" s="11">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="B184" t="s">
-        <v>174</v>
-      </c>
-      <c r="C184"/>
+        <v>23</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D184" s="3" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="E184"/>
       <c r="G184" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H184" s="1">
-        <v>0.89027777777777772</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="195">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15.5">
       <c r="A185" s="11">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="B185" t="s">
-        <v>174</v>
-      </c>
-      <c r="C185"/>
-      <c r="D185" s="3" t="s">
-        <v>94</v>
+        <v>23</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" t="s">
+        <v>40</v>
       </c>
       <c r="E185"/>
       <c r="G185" s="4">
-        <v>45364</v>
+        <v>45350</v>
       </c>
       <c r="H185" s="1">
-        <v>0.6020833333333333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="120">
+        <v>0.70277777777777772</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.5">
       <c r="A186" s="11">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="B186" t="s">
-        <v>174</v>
-      </c>
-      <c r="C186"/>
-      <c r="D186" s="3" t="s">
-        <v>251</v>
+        <v>23</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D186" t="s">
+        <v>50</v>
       </c>
       <c r="E186"/>
       <c r="G186" s="4">
-        <v>45353</v>
+        <v>45350</v>
       </c>
       <c r="H186" s="1">
-        <v>0.81041666666666667</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="165">
+        <v>0.86736111111111114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.5">
       <c r="A187" s="11">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
-      </c>
-      <c r="C187"/>
-      <c r="D187" s="3" t="s">
-        <v>252</v>
+        <v>23</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D187" t="s">
+        <v>70</v>
       </c>
       <c r="E187"/>
       <c r="G187" s="4">
-        <v>45358</v>
+        <v>45350</v>
       </c>
       <c r="H187" s="1">
-        <v>0.68402777777777779</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="165">
+        <v>0.90555555555555556</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="116">
       <c r="A188" s="11">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="C188"/>
       <c r="D188" s="3" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="E188"/>
       <c r="G188" s="4">
-        <v>45358</v>
+        <v>45350</v>
       </c>
       <c r="H188" s="1">
-        <v>0.59930555555555554</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="105">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15.5">
       <c r="A189" s="11">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="B189" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C189"/>
-      <c r="D189" s="3" t="s">
-        <v>114</v>
+      <c r="D189" t="s">
+        <v>102</v>
       </c>
       <c r="E189"/>
       <c r="G189" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H189" s="1">
-        <v>0.85555555555555551</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="60">
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="145">
       <c r="A190" s="11">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B190" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C190"/>
       <c r="D190" s="3" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="E190"/>
       <c r="G190" s="4">
-        <v>45353</v>
+        <v>45350</v>
       </c>
       <c r="H190" s="1">
-        <v>0.67291666666666672</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="45">
+        <v>0.68541666666666667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15.5">
       <c r="A191" s="11">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="B191" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C191"/>
-      <c r="D191" s="3" t="s">
-        <v>97</v>
+      <c r="D191" t="s">
+        <v>107</v>
       </c>
       <c r="E191"/>
       <c r="G191" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H191" s="1">
-        <v>0.79513888888888884</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="30">
+        <v>0.80347222222222225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15.5">
       <c r="A192" s="11">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="B192" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C192"/>
-      <c r="D192" s="3" t="s">
-        <v>260</v>
+      <c r="D192" t="s">
+        <v>109</v>
       </c>
       <c r="E192"/>
-    </row>
-    <row r="193" spans="1:8" ht="75">
+      <c r="G192" s="4">
+        <v>45350</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0.8520833333333333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.5">
       <c r="A193" s="11">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B193" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C193"/>
-      <c r="D193" s="3" t="s">
-        <v>261</v>
+      <c r="D193" t="s">
+        <v>110</v>
       </c>
       <c r="E193"/>
       <c r="G193" s="4">
         <v>45350</v>
       </c>
       <c r="H193" s="1">
-        <v>0.7368055555555556</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="45">
+        <v>0.91874999999999996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="29">
       <c r="A194" s="11">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B194" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C194"/>
       <c r="D194" s="3" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="E194"/>
-      <c r="G194" s="5">
+      <c r="G194" s="4">
         <v>45350</v>
       </c>
       <c r="H194" s="1">
-        <v>0.93402777777777779</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="30">
+        <v>0.6694444444444444</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.5">
       <c r="A195" s="11">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="B195" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C195"/>
-      <c r="D195" s="3" t="s">
-        <v>45</v>
+      <c r="D195" t="s">
+        <v>116</v>
       </c>
       <c r="E195"/>
       <c r="G195" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H195" s="1">
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.75">
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.5">
       <c r="A196" s="11">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B196" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C196"/>
       <c r="D196" t="s">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="E196"/>
       <c r="G196" s="4">
-        <v>45353</v>
+        <v>45350</v>
       </c>
       <c r="H196" s="1">
-        <v>0.89652777777777781</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="105">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.5">
       <c r="A197" s="11">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="B197" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C197"/>
-      <c r="D197" s="3" t="s">
-        <v>267</v>
+      <c r="D197" t="s">
+        <v>121</v>
       </c>
       <c r="E197"/>
       <c r="G197" s="4">
-        <v>45356</v>
+        <v>45350</v>
       </c>
       <c r="H197" s="1">
-        <v>0.8569444444444444</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="105">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.5">
       <c r="A198" s="11">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B198" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C198"/>
-      <c r="D198" s="3" t="s">
-        <v>215</v>
+      <c r="D198" t="s">
+        <v>122</v>
       </c>
       <c r="E198"/>
       <c r="G198" s="4">
-        <v>45355</v>
+        <v>45350</v>
       </c>
       <c r="H198" s="1">
-        <v>0.92708333333333337</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="120">
+        <v>0.89097222222222228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="58">
       <c r="A199" s="11">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="B199" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C199"/>
       <c r="D199" s="3" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="E199"/>
       <c r="G199" s="4">
         <v>45350</v>
       </c>
       <c r="H199" s="1">
-        <v>0.80625000000000002</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="30">
+        <v>0.85972222222222228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="203">
       <c r="A200" s="11">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="B200" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C200"/>
       <c r="D200" s="3" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="E200"/>
       <c r="G200" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H200" s="1">
-        <v>0.74027777777777781</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="105">
+        <v>0.33124999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.5">
       <c r="A201" s="11">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="B201" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C201"/>
-      <c r="D201" s="3" t="s">
-        <v>272</v>
+      <c r="D201" t="s">
+        <v>125</v>
       </c>
       <c r="E201"/>
       <c r="G201" s="4">
         <v>45350</v>
       </c>
       <c r="H201" s="1">
-        <v>0.63888888888888884</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="330">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="72.5">
       <c r="A202" s="11">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B202" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C202"/>
       <c r="D202" s="3" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="E202"/>
       <c r="G202" s="4">
-        <v>45358</v>
+        <v>45350</v>
       </c>
       <c r="H202" s="1">
-        <v>0.86527777777777781</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="409.5">
+        <v>0.7368055555555556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="43.5">
       <c r="A203" s="11">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B203" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C203"/>
       <c r="D203" s="3" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="E203"/>
-      <c r="G203" s="4">
-        <v>45360</v>
+      <c r="G203" s="5">
+        <v>45350</v>
       </c>
       <c r="H203" s="1">
-        <v>0.88194444444444442</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="150">
+        <v>0.93402777777777779</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="116">
       <c r="A204" s="11">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B204" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C204"/>
       <c r="D204" s="3" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="E204"/>
       <c r="G204" s="4">
         <v>45350</v>
       </c>
       <c r="H204" s="1">
-        <v>0.68541666666666667</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="101.5">
       <c r="A205" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C205"/>
-      <c r="D205" t="s">
-        <v>104</v>
+      <c r="D205" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="E205"/>
-    </row>
-    <row r="206" spans="1:8" ht="15.75">
+      <c r="G205" s="4">
+        <v>45350</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="145">
       <c r="A206" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C206"/>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E206"/>
@@ -6360,91 +6372,91 @@
         <v>45350</v>
       </c>
       <c r="H206" s="1">
-        <v>0.71111111111111114</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="409.5">
+        <v>0.68541666666666667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15.5">
       <c r="A207" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C207"/>
-      <c r="D207" s="3" t="s">
-        <v>11</v>
+      <c r="D207" t="s">
+        <v>102</v>
       </c>
       <c r="E207"/>
       <c r="G207" s="4">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="H207" s="1">
-        <v>0.68194444444444446</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="15.75">
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15.5">
       <c r="A208" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C208"/>
       <c r="D208" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="E208"/>
       <c r="G208" s="4">
-        <v>45366</v>
+        <v>45350</v>
       </c>
       <c r="H208" s="1">
-        <v>0.74791666666666667</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="15.75">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.5">
       <c r="A209" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C209"/>
       <c r="D209" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="E209"/>
       <c r="G209" s="4">
-        <v>45365</v>
+        <v>45350</v>
       </c>
       <c r="H209" s="1">
-        <v>0.68055555555555558</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="15.75">
+        <v>0.80347222222222225</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15.5">
       <c r="A210" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C210"/>
       <c r="D210" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E210"/>
       <c r="G210" s="4">
         <v>45350</v>
       </c>
       <c r="H210" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="15.75">
+        <v>0.78402777777777777</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15.5">
       <c r="A211" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C211"/>
       <c r="D211" t="s">
@@ -6455,406 +6467,388 @@
         <v>45350</v>
       </c>
       <c r="H211" s="1">
-        <v>0.80347222222222225</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="15.75">
+        <v>0.8520833333333333</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15.5">
       <c r="A212" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C212"/>
       <c r="D212" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="E212"/>
       <c r="G212" s="4">
         <v>45350</v>
       </c>
       <c r="H212" s="1">
-        <v>0.78402777777777777</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="15.75">
+        <v>0.91874999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15.5">
       <c r="A213" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C213"/>
       <c r="D213" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="E213"/>
       <c r="G213" s="4">
         <v>45350</v>
       </c>
       <c r="H213" s="1">
-        <v>0.8520833333333333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="15.75">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="58">
       <c r="A214" s="11">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C214"/>
-      <c r="D214" t="s">
-        <v>112</v>
+      <c r="D214" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E214"/>
       <c r="G214" s="4">
         <v>45350</v>
       </c>
       <c r="H214" s="1">
-        <v>0.91874999999999996</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="15.75">
+        <v>0.85972222222222228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15.5">
       <c r="A215" s="11">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C215"/>
       <c r="D215" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E215"/>
       <c r="G215" s="4">
         <v>45350</v>
       </c>
       <c r="H215" s="1">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="15.75">
+        <v>0.85972222222222228</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="29">
       <c r="A216" s="11">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C216"/>
-      <c r="D216" t="s">
-        <v>278</v>
+      <c r="D216" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="E216"/>
-    </row>
-    <row r="217" spans="1:8" ht="60">
+      <c r="G216" s="4">
+        <v>45350</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15.5">
       <c r="A217" s="11">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C217"/>
-      <c r="D217" s="3" t="s">
-        <v>125</v>
+      <c r="D217" t="s">
+        <v>116</v>
       </c>
       <c r="E217"/>
       <c r="G217" s="4">
         <v>45350</v>
       </c>
       <c r="H217" s="1">
-        <v>0.85972222222222228</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="15.75">
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15.5">
       <c r="A218" s="11">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C218"/>
       <c r="D218" t="s">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="E218"/>
       <c r="G218" s="4">
-        <v>45366</v>
+        <v>45350</v>
       </c>
       <c r="H218" s="1">
-        <v>0.52569444444444446</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="15.75">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15.5">
       <c r="A219" s="11">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C219"/>
       <c r="D219" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E219"/>
       <c r="G219" s="4">
         <v>45350</v>
       </c>
       <c r="H219" s="1">
-        <v>0.85972222222222228</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="15.75">
+        <v>0.65347222222222223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15.5">
       <c r="A220" s="11">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C220"/>
       <c r="D220" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="E220"/>
       <c r="G220" s="4">
-        <v>45366</v>
+        <v>45350</v>
       </c>
       <c r="H220" s="1">
-        <v>0.52569444444444446</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="360">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="170.5">
       <c r="A221" s="11">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>255</v>
-      </c>
-      <c r="C221"/>
-      <c r="D221" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E221"/>
-      <c r="G221" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H221" s="1">
-        <v>0.75694444444444442</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="30">
+        <v>54</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E221" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F221" s="11"/>
+      <c r="G221" s="14">
+        <v>45349</v>
+      </c>
+      <c r="H221" s="15">
+        <v>0.8305555555555556</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="188.5">
       <c r="A222" s="11">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="B222" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C222"/>
       <c r="D222" s="3" t="s">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c r="E222"/>
       <c r="G222" s="4">
-        <v>45350</v>
+        <v>45347</v>
       </c>
       <c r="H222" s="1">
-        <v>0.46597222222222223</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="15.75">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="188.5">
       <c r="A223" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C223"/>
-      <c r="D223" t="s">
-        <v>117</v>
+      <c r="D223" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E223"/>
       <c r="G223" s="4">
-        <v>45351</v>
+        <v>45347</v>
       </c>
       <c r="H223" s="1">
-        <v>0.86527777777777781</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="15.75">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="217.5">
       <c r="A224" s="11">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="B224" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C224"/>
-      <c r="D224" t="s">
-        <v>118</v>
+      <c r="D224" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E224"/>
       <c r="G224" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H224" s="1">
-        <v>0.81944444444444442</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="195">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="58">
       <c r="A225" s="11">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="B225" t="s">
-        <v>255</v>
-      </c>
-      <c r="C225"/>
+        <v>23</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D225" s="3" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="E225"/>
       <c r="G225" s="4">
-        <v>45361</v>
+        <v>45328</v>
       </c>
       <c r="H225" s="1">
-        <v>0.48819444444444443</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="195">
+        <v>0.81597222222222221</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15.5">
       <c r="A226" s="11">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="B226" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C226"/>
-      <c r="D226" s="3" t="s">
-        <v>120</v>
+      <c r="D226" t="s">
+        <v>105</v>
       </c>
       <c r="E226"/>
       <c r="G226" s="4">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="H226" s="1">
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="15.75">
+        <v>0.65277777777777779</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="333.5">
       <c r="A227" s="11">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="B227" t="s">
-        <v>255</v>
-      </c>
-      <c r="C227"/>
-      <c r="D227" t="s">
-        <v>122</v>
+        <v>23</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E227"/>
-      <c r="G227" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H227" s="1">
-        <v>0.90277777777777779</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="15.75">
+    </row>
+    <row r="228" spans="1:8" ht="188.5">
       <c r="A228" s="11">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="B228" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="C228"/>
-      <c r="D228" t="s">
-        <v>119</v>
+      <c r="D228" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E228"/>
-      <c r="G228" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H228" s="1">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="15.75">
+    </row>
+    <row r="229" spans="1:8" ht="29">
       <c r="A229" s="11">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B229" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C229"/>
-      <c r="D229" t="s">
-        <v>283</v>
+      <c r="D229" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="E229"/>
-      <c r="G229" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H229" s="1">
-        <v>0.65347222222222223</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="120">
+    </row>
+    <row r="230" spans="1:8" ht="15.5">
       <c r="A230" s="11">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B230" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C230"/>
-      <c r="D230" s="3" t="s">
-        <v>224</v>
+      <c r="D230" t="s">
+        <v>102</v>
       </c>
       <c r="E230"/>
     </row>
-    <row r="231" spans="1:8" ht="15.75">
+    <row r="231" spans="1:8" ht="15.5">
       <c r="A231" s="11">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B231" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C231"/>
       <c r="D231" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="E231"/>
-      <c r="G231" s="4">
-        <v>45350</v>
-      </c>
-      <c r="H231" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="240">
+    </row>
+    <row r="232" spans="1:8" ht="87">
       <c r="A232" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C232"/>
       <c r="D232" s="3" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="E232"/>
-      <c r="G232" s="4">
-        <v>45351</v>
-      </c>
-      <c r="H232" s="1">
-        <v>0.83125000000000004</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="15.75">
+    </row>
+    <row r="233" spans="1:8" ht="15.5">
       <c r="A233" s="11">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C233"/>
       <c r="D233" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E233"/>
       <c r="H233" s="1">
@@ -6862,115 +6856,127 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I233">
+    <sortCondition descending="1" ref="G1:G233"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1C4FDF0E-A5C7-42D2-92DD-0FDC659278D7}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3DC05E42-E5BF-4719-B409-2BD649C1775C}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{B94D3F3B-224F-489E-85FD-E4D05BDEF46A}"/>
-    <hyperlink ref="C7" r:id="rId4" location=":~:text=%C2%B7-,Nsewu%20waduka,-Times%20360%20Malawi" xr:uid="{480B6BDA-E9C5-45C8-8715-19BDBA2045D5}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{C89EBE1F-5E30-40B9-B936-E69792011A64}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{DD1C6293-40C0-4B6D-AB98-2D56C50714A4}"/>
-    <hyperlink ref="C28" r:id="rId7" xr:uid="{B884125B-B1F3-417B-BEB5-83DAA9BCCF0E}"/>
-    <hyperlink ref="C41" r:id="rId8" xr:uid="{A5D43D2B-7F97-48B5-92DC-49A662D63FBB}"/>
-    <hyperlink ref="C44" r:id="rId9" xr:uid="{BD8487E7-0054-49C1-AFD7-62B578B494E3}"/>
-    <hyperlink ref="C49" r:id="rId10" xr:uid="{D386BC05-1DFF-4EAB-9697-46C7FD40CFBE}"/>
-    <hyperlink ref="C50" r:id="rId11" xr:uid="{DB951FED-1CC1-4C4C-9F46-1917624E7D37}"/>
-    <hyperlink ref="C61" r:id="rId12" xr:uid="{737D5168-0619-4349-8038-42ADA192730A}"/>
-    <hyperlink ref="C64" r:id="rId13" xr:uid="{D6F1A7F7-29B0-4225-8324-151CB69373B5}"/>
-    <hyperlink ref="C65" r:id="rId14" xr:uid="{B4561D14-F9CB-43A9-A168-7878A7E31A5B}"/>
-    <hyperlink ref="C5" r:id="rId15" xr:uid="{4E6CC092-9321-42B8-8F2A-621FB5F88769}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{8E5E1A77-FE0C-4627-8D62-FD6B62D50719}"/>
-    <hyperlink ref="C9" r:id="rId17" xr:uid="{2BFBE1AC-0A03-4E57-AE0A-FD7F9D843284}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{816DDC2A-EE66-4AF4-8F12-D3925869EFF8}"/>
-    <hyperlink ref="C12" r:id="rId19" xr:uid="{80144BA1-5656-48D1-8CE7-1BAEB91FD95E}"/>
-    <hyperlink ref="C13" r:id="rId20" xr:uid="{92B0BCDD-3283-4335-A1C3-1CA727D83B9B}"/>
-    <hyperlink ref="C14" r:id="rId21" xr:uid="{24DE890D-B7A1-43A8-AC93-E46F5098E887}"/>
-    <hyperlink ref="C15" r:id="rId22" xr:uid="{9F1C534C-2612-4E38-876D-476C9D6961D2}"/>
-    <hyperlink ref="C16" r:id="rId23" xr:uid="{C1834D48-1398-4E4C-928D-E74C8EB60974}"/>
-    <hyperlink ref="C17" r:id="rId24" xr:uid="{79CCC7B4-0802-425E-BDD7-5A376211D7D7}"/>
-    <hyperlink ref="C18" r:id="rId25" xr:uid="{2F2D8549-ED93-4FAD-AF8B-F3A1A04035CD}"/>
-    <hyperlink ref="C19" r:id="rId26" xr:uid="{AC3FB74C-A093-41C1-91BA-B7AB01BF555C}"/>
-    <hyperlink ref="C20" r:id="rId27" xr:uid="{EDD0E041-E7BF-4DBE-88DC-0CDE0821FAF4}"/>
-    <hyperlink ref="C21" r:id="rId28" xr:uid="{DCCE78D3-0571-44C0-B3AC-749A50EFB2DE}"/>
-    <hyperlink ref="C22" r:id="rId29" xr:uid="{1CB0B5E4-F9A3-43EA-AAEF-A93028F11C7D}"/>
-    <hyperlink ref="C24" r:id="rId30" xr:uid="{105E5FFB-3266-4CC4-8325-7BD5C0420151}"/>
-    <hyperlink ref="C25" r:id="rId31" xr:uid="{1776FC42-6A76-462C-A563-3D286ED1093E}"/>
-    <hyperlink ref="C26" r:id="rId32" xr:uid="{E5665707-79DA-4E95-BBAE-3023A9ECCB90}"/>
-    <hyperlink ref="C27" r:id="rId33" xr:uid="{A1FA8D2A-7401-4B78-8F7E-B02C38860EE9}"/>
-    <hyperlink ref="C29" r:id="rId34" xr:uid="{064CF3CF-3447-4DB3-A37F-953FF2C19FE0}"/>
-    <hyperlink ref="C30" r:id="rId35" xr:uid="{4E2A19FF-8729-40E4-8FC9-107A58A55CD9}"/>
-    <hyperlink ref="C31" r:id="rId36" xr:uid="{C37132E2-9610-4247-9055-E6629499A4B1}"/>
-    <hyperlink ref="C32" r:id="rId37" xr:uid="{100AAC7F-9005-443C-A287-C6B89E9E9751}"/>
-    <hyperlink ref="C33" r:id="rId38" xr:uid="{57AD1989-3B87-45B0-9032-D55E55D6A7EE}"/>
-    <hyperlink ref="C34" r:id="rId39" xr:uid="{365A051B-F3AA-41B0-85BD-1047AB643B41}"/>
-    <hyperlink ref="C35" r:id="rId40" xr:uid="{6D764801-B590-440B-A20A-91D092F2208B}"/>
-    <hyperlink ref="C36" r:id="rId41" xr:uid="{671C9E76-44F6-4AE6-A611-1A805C4B3B90}"/>
-    <hyperlink ref="C37" r:id="rId42" xr:uid="{79D81F0F-869F-4442-BC67-9300EB5E6189}"/>
-    <hyperlink ref="C38" r:id="rId43" xr:uid="{C0FADBF2-9977-4CAD-817D-BA1D548FA08B}"/>
-    <hyperlink ref="C39" r:id="rId44" xr:uid="{398AFE85-8B47-466B-9CC7-69378578146A}"/>
-    <hyperlink ref="C2" r:id="rId45" xr:uid="{23B3388C-4B22-4A0C-AC68-34A5676576E7}"/>
-    <hyperlink ref="C40" r:id="rId46" xr:uid="{5F946BA4-8732-4CC7-AE47-E0CBDFC9BBD5}"/>
-    <hyperlink ref="C42" r:id="rId47" xr:uid="{02BE5DE1-78DA-445A-B49E-E4B6695147C5}"/>
-    <hyperlink ref="C43" r:id="rId48" xr:uid="{B6CEC58A-6CBE-4623-A33F-962FA68BAC13}"/>
-    <hyperlink ref="C45" r:id="rId49" xr:uid="{BF5E3048-26A7-4493-8065-EF328B01B115}"/>
-    <hyperlink ref="C46" r:id="rId50" xr:uid="{7A30315F-A48C-486A-A1EA-5E86F7B92AF3}"/>
-    <hyperlink ref="C47" r:id="rId51" xr:uid="{3D3938B3-B615-482E-A579-22631C144ED5}"/>
-    <hyperlink ref="C48" r:id="rId52" xr:uid="{ACD73ADF-6BF9-422E-943E-DBF09EE08188}"/>
-    <hyperlink ref="C51" r:id="rId53" xr:uid="{2911A006-4C27-4761-8B7F-A1F829ABA5AF}"/>
-    <hyperlink ref="C52" r:id="rId54" xr:uid="{5EDA71CB-FF3F-4A66-B4FC-A2FD931A3D9D}"/>
-    <hyperlink ref="C53" r:id="rId55" xr:uid="{36383B4C-AE07-45FB-AABD-3CF8AB012855}"/>
+    <hyperlink ref="C170" r:id="rId1" xr:uid="{1C4FDF0E-A5C7-42D2-92DD-0FDC659278D7}"/>
+    <hyperlink ref="C43" r:id="rId2" xr:uid="{3DC05E42-E5BF-4719-B409-2BD649C1775C}"/>
+    <hyperlink ref="C120" r:id="rId3" xr:uid="{B94D3F3B-224F-489E-85FD-E4D05BDEF46A}"/>
+    <hyperlink ref="C121" r:id="rId4" location=":~:text=%C2%B7-,Nsewu%20waduka,-Times%20360%20Malawi" xr:uid="{480B6BDA-E9C5-45C8-8715-19BDBA2045D5}"/>
+    <hyperlink ref="C123" r:id="rId5" xr:uid="{C89EBE1F-5E30-40B9-B936-E69792011A64}"/>
+    <hyperlink ref="C127" r:id="rId6" xr:uid="{DD1C6293-40C0-4B6D-AB98-2D56C50714A4}"/>
+    <hyperlink ref="C48" r:id="rId7" xr:uid="{B884125B-B1F3-417B-BEB5-83DAA9BCCF0E}"/>
+    <hyperlink ref="C51" r:id="rId8" xr:uid="{A5D43D2B-7F97-48B5-92DC-49A662D63FBB}"/>
+    <hyperlink ref="C136" r:id="rId9" xr:uid="{BD8487E7-0054-49C1-AFD7-62B578B494E3}"/>
+    <hyperlink ref="C52" r:id="rId10" xr:uid="{D386BC05-1DFF-4EAB-9697-46C7FD40CFBE}"/>
+    <hyperlink ref="C138" r:id="rId11" xr:uid="{DB951FED-1CC1-4C4C-9F46-1917624E7D37}"/>
+    <hyperlink ref="C79" r:id="rId12" xr:uid="{737D5168-0619-4349-8038-42ADA192730A}"/>
+    <hyperlink ref="C180" r:id="rId13" xr:uid="{D6F1A7F7-29B0-4225-8324-151CB69373B5}"/>
+    <hyperlink ref="C115" r:id="rId14" xr:uid="{B4561D14-F9CB-43A9-A168-7878A7E31A5B}"/>
+    <hyperlink ref="C171" r:id="rId15" xr:uid="{4E6CC092-9321-42B8-8F2A-621FB5F88769}"/>
+    <hyperlink ref="C122" r:id="rId16" xr:uid="{8E5E1A77-FE0C-4627-8D62-FD6B62D50719}"/>
+    <hyperlink ref="C95" r:id="rId17" xr:uid="{2BFBE1AC-0A03-4E57-AE0A-FD7F9D843284}"/>
+    <hyperlink ref="C44" r:id="rId18" xr:uid="{816DDC2A-EE66-4AF4-8F12-D3925869EFF8}"/>
+    <hyperlink ref="C124" r:id="rId19" xr:uid="{80144BA1-5656-48D1-8CE7-1BAEB91FD95E}"/>
+    <hyperlink ref="C113" r:id="rId20" xr:uid="{92B0BCDD-3283-4335-A1C3-1CA727D83B9B}"/>
+    <hyperlink ref="C86" r:id="rId21" xr:uid="{24DE890D-B7A1-43A8-AC93-E46F5098E887}"/>
+    <hyperlink ref="C125" r:id="rId22" xr:uid="{9F1C534C-2612-4E38-876D-476C9D6961D2}"/>
+    <hyperlink ref="C45" r:id="rId23" xr:uid="{C1834D48-1398-4E4C-928D-E74C8EB60974}"/>
+    <hyperlink ref="C46" r:id="rId24" xr:uid="{79CCC7B4-0802-425E-BDD7-5A376211D7D7}"/>
+    <hyperlink ref="C172" r:id="rId25" xr:uid="{2F2D8549-ED93-4FAD-AF8B-F3A1A04035CD}"/>
+    <hyperlink ref="C126" r:id="rId26" xr:uid="{AC3FB74C-A093-41C1-91BA-B7AB01BF555C}"/>
+    <hyperlink ref="C173" r:id="rId27" xr:uid="{EDD0E041-E7BF-4DBE-88DC-0CDE0821FAF4}"/>
+    <hyperlink ref="C174" r:id="rId28" xr:uid="{DCCE78D3-0571-44C0-B3AC-749A50EFB2DE}"/>
+    <hyperlink ref="C175" r:id="rId29" xr:uid="{1CB0B5E4-F9A3-43EA-AAEF-A93028F11C7D}"/>
+    <hyperlink ref="C128" r:id="rId30" xr:uid="{105E5FFB-3266-4CC4-8325-7BD5C0420151}"/>
+    <hyperlink ref="C176" r:id="rId31" xr:uid="{1776FC42-6A76-462C-A563-3D286ED1093E}"/>
+    <hyperlink ref="C177" r:id="rId32" xr:uid="{E5665707-79DA-4E95-BBAE-3023A9ECCB90}"/>
+    <hyperlink ref="C47" r:id="rId33" xr:uid="{A1FA8D2A-7401-4B78-8F7E-B02C38860EE9}"/>
+    <hyperlink ref="C178" r:id="rId34" xr:uid="{064CF3CF-3447-4DB3-A37F-953FF2C19FE0}"/>
+    <hyperlink ref="C129" r:id="rId35" xr:uid="{4E2A19FF-8729-40E4-8FC9-107A58A55CD9}"/>
+    <hyperlink ref="C49" r:id="rId36" xr:uid="{C37132E2-9610-4247-9055-E6629499A4B1}"/>
+    <hyperlink ref="C4" r:id="rId37" xr:uid="{100AAC7F-9005-443C-A287-C6B89E9E9751}"/>
+    <hyperlink ref="C130" r:id="rId38" xr:uid="{57AD1989-3B87-45B0-9032-D55E55D6A7EE}"/>
+    <hyperlink ref="C131" r:id="rId39" xr:uid="{365A051B-F3AA-41B0-85BD-1047AB643B41}"/>
+    <hyperlink ref="C50" r:id="rId40" xr:uid="{6D764801-B590-440B-A20A-91D092F2208B}"/>
+    <hyperlink ref="C132" r:id="rId41" xr:uid="{671C9E76-44F6-4AE6-A611-1A805C4B3B90}"/>
+    <hyperlink ref="C133" r:id="rId42" xr:uid="{79D81F0F-869F-4442-BC67-9300EB5E6189}"/>
+    <hyperlink ref="C134" r:id="rId43" xr:uid="{C0FADBF2-9977-4CAD-817D-BA1D548FA08B}"/>
+    <hyperlink ref="C135" r:id="rId44" xr:uid="{398AFE85-8B47-466B-9CC7-69378578146A}"/>
+    <hyperlink ref="C104" r:id="rId45" xr:uid="{23B3388C-4B22-4A0C-AC68-34A5676576E7}"/>
+    <hyperlink ref="C96" r:id="rId46" xr:uid="{5F946BA4-8732-4CC7-AE47-E0CBDFC9BBD5}"/>
+    <hyperlink ref="C105" r:id="rId47" xr:uid="{02BE5DE1-78DA-445A-B49E-E4B6695147C5}"/>
+    <hyperlink ref="C179" r:id="rId48" xr:uid="{B6CEC58A-6CBE-4623-A33F-962FA68BAC13}"/>
+    <hyperlink ref="C87" r:id="rId49" xr:uid="{BF5E3048-26A7-4493-8065-EF328B01B115}"/>
+    <hyperlink ref="C114" r:id="rId50" xr:uid="{7A30315F-A48C-486A-A1EA-5E86F7B92AF3}"/>
+    <hyperlink ref="C137" r:id="rId51" xr:uid="{3D3938B3-B615-482E-A579-22631C144ED5}"/>
+    <hyperlink ref="C106" r:id="rId52" xr:uid="{ACD73ADF-6BF9-422E-943E-DBF09EE08188}"/>
+    <hyperlink ref="C88" r:id="rId53" xr:uid="{2911A006-4C27-4761-8B7F-A1F829ABA5AF}"/>
+    <hyperlink ref="C53" r:id="rId54" xr:uid="{5EDA71CB-FF3F-4A66-B4FC-A2FD931A3D9D}"/>
+    <hyperlink ref="C139" r:id="rId55" xr:uid="{36383B4C-AE07-45FB-AABD-3CF8AB012855}"/>
     <hyperlink ref="C54" r:id="rId56" xr:uid="{83293B21-E57D-4FDC-84E9-C53958AE4D16}"/>
-    <hyperlink ref="C55" r:id="rId57" xr:uid="{F3D77312-5F12-45B9-A2F5-5B92B19810DE}"/>
-    <hyperlink ref="C57" r:id="rId58" xr:uid="{5999AEB0-8940-4A7C-AB54-3B7CA53F5697}"/>
-    <hyperlink ref="C58" r:id="rId59" xr:uid="{5BC31A9B-5587-4EB9-A929-64A5D9C85561}"/>
-    <hyperlink ref="C59" r:id="rId60" xr:uid="{0CCC20C3-8C8B-4FEC-886B-5D22BA6DEA38}"/>
-    <hyperlink ref="C60" r:id="rId61" xr:uid="{64194311-8BF5-492E-820A-38B430E8F542}"/>
-    <hyperlink ref="C62" r:id="rId62" xr:uid="{A3F45407-DAFC-40C8-A98F-EE988FB2C63C}"/>
-    <hyperlink ref="C63" r:id="rId63" xr:uid="{3250EA2F-5E02-415B-A1FD-6D3B92B248D9}"/>
-    <hyperlink ref="C66" r:id="rId64" xr:uid="{8557D027-5F61-4B73-92E4-2E1C81AA2EC0}"/>
-    <hyperlink ref="C68" r:id="rId65" xr:uid="{877D1D39-2E8E-4F3D-9A18-8AC0DCF04EB7}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{E0EB2BE3-BBB8-4B30-8F67-AF2919B3370D}"/>
-    <hyperlink ref="C69" r:id="rId67" xr:uid="{0578DF99-D39A-4EE0-9114-078D9F9CC0CA}"/>
-    <hyperlink ref="C70" r:id="rId68" xr:uid="{677F4BDA-A403-4B7B-AF04-A790F441BC0A}"/>
-    <hyperlink ref="C71" r:id="rId69" xr:uid="{BB6D1702-527B-4839-8856-4AC8CA16E84C}"/>
-    <hyperlink ref="C72" r:id="rId70" xr:uid="{42D28672-BB29-41A4-A2FF-03B6C7DD3DBD}"/>
-    <hyperlink ref="C73" r:id="rId71" xr:uid="{DB0FFD1C-2A18-4F69-B548-B43313B2437D}"/>
-    <hyperlink ref="C74" r:id="rId72" xr:uid="{C53B806A-F8D4-4B99-B333-084688C703D9}"/>
-    <hyperlink ref="C75" r:id="rId73" xr:uid="{BC6A6FE7-00EF-473E-8AE5-93C38DF40B36}"/>
-    <hyperlink ref="C76" r:id="rId74" xr:uid="{C3315510-0C5E-4596-8A69-9102D1DEC835}"/>
-    <hyperlink ref="C77" r:id="rId75" xr:uid="{2577DC56-FFC8-41AE-A1D8-2FA54D0B468F}"/>
-    <hyperlink ref="C78" r:id="rId76" xr:uid="{EEAC362E-5C2B-4C29-A830-CF0F5822A341}"/>
-    <hyperlink ref="C79" r:id="rId77" xr:uid="{099C4215-6034-45F4-A261-609CE8ABB661}"/>
-    <hyperlink ref="C80" r:id="rId78" xr:uid="{D3CD9893-8196-42EE-A87A-ADBF9ABC8864}"/>
-    <hyperlink ref="C81" r:id="rId79" xr:uid="{ACFDB10E-86F4-4DCF-81F3-E6F355904BE4}"/>
-    <hyperlink ref="C82" r:id="rId80" xr:uid="{24ABD6F5-EDB6-4A35-89CC-9CC3239F128A}"/>
-    <hyperlink ref="C83" r:id="rId81" xr:uid="{9107394E-299B-457F-AAF1-B288D124E0FA}"/>
-    <hyperlink ref="C84" r:id="rId82" xr:uid="{4FDD9BEA-2661-454F-B290-4D986F72EEB7}"/>
-    <hyperlink ref="C85" r:id="rId83" xr:uid="{A86FA296-A651-4238-B613-4A3CE187CAF4}"/>
-    <hyperlink ref="C86" r:id="rId84" xr:uid="{5904D274-BC05-45B7-8B48-D9FA4D802723}"/>
-    <hyperlink ref="C87" r:id="rId85" xr:uid="{D116F4DB-0987-4F91-A457-F8CE5C121EB5}"/>
-    <hyperlink ref="C88" r:id="rId86" xr:uid="{F4947988-889C-4289-8FD8-29CF9A003E03}"/>
-    <hyperlink ref="C89" r:id="rId87" xr:uid="{1B169F0F-B755-4F89-896C-E139322C473B}"/>
-    <hyperlink ref="C90" r:id="rId88" xr:uid="{8F9FF674-51AC-4D76-B285-59D5D512A1FB}"/>
-    <hyperlink ref="C91" r:id="rId89" xr:uid="{86F72EEE-2839-4542-A04F-E0691D539A5E}"/>
-    <hyperlink ref="C92" r:id="rId90" xr:uid="{FCB68FAD-B3D0-4A78-82DB-C03B04716B28}"/>
-    <hyperlink ref="C93" r:id="rId91" xr:uid="{CB0E2A92-43D5-4962-86BC-958928253A3E}"/>
-    <hyperlink ref="C94" r:id="rId92" xr:uid="{53C14D1D-3846-405F-8F82-3C22AF1A718B}"/>
-    <hyperlink ref="C95" r:id="rId93" xr:uid="{F2BD0BBF-D592-45FE-B551-C1680F6F48AC}"/>
-    <hyperlink ref="C96" r:id="rId94" xr:uid="{0679E9F3-3917-4EB7-B067-900860481148}"/>
-    <hyperlink ref="C97" r:id="rId95" xr:uid="{7B42D995-2F4D-4792-8560-0166D2A7C454}"/>
-    <hyperlink ref="C98" r:id="rId96" xr:uid="{C0391D98-2489-4497-82AC-4C28A84BE03A}"/>
-    <hyperlink ref="C99" r:id="rId97" xr:uid="{635201BB-E0AB-4427-9BAA-8DCAB2D98EC0}"/>
-    <hyperlink ref="C100" r:id="rId98" xr:uid="{E4521DE8-D40E-473C-8E8C-D81DD7DA8CFF}"/>
-    <hyperlink ref="C101" r:id="rId99" xr:uid="{D1ED7E49-D3FF-4711-BD89-59C4C3DF0CC8}"/>
-    <hyperlink ref="C102" r:id="rId100" xr:uid="{A85C2B26-59CB-4FCF-8BEA-40A8E6A8D095}"/>
-    <hyperlink ref="C103" r:id="rId101" xr:uid="{6F3AB2DA-D3B7-424C-92C1-F777F76903F8}"/>
+    <hyperlink ref="C221" r:id="rId57" xr:uid="{F3D77312-5F12-45B9-A2F5-5B92B19810DE}"/>
+    <hyperlink ref="C89" r:id="rId58" xr:uid="{5999AEB0-8940-4A7C-AB54-3B7CA53F5697}"/>
+    <hyperlink ref="C90" r:id="rId59" xr:uid="{5BC31A9B-5587-4EB9-A929-64A5D9C85561}"/>
+    <hyperlink ref="C140" r:id="rId60" xr:uid="{0CCC20C3-8C8B-4FEC-886B-5D22BA6DEA38}"/>
+    <hyperlink ref="C141" r:id="rId61" xr:uid="{64194311-8BF5-492E-820A-38B430E8F542}"/>
+    <hyperlink ref="C56" r:id="rId62" xr:uid="{A3F45407-DAFC-40C8-A98F-EE988FB2C63C}"/>
+    <hyperlink ref="C91" r:id="rId63" xr:uid="{3250EA2F-5E02-415B-A1FD-6D3B92B248D9}"/>
+    <hyperlink ref="C2" r:id="rId64" xr:uid="{8557D027-5F61-4B73-92E4-2E1C81AA2EC0}"/>
+    <hyperlink ref="C181" r:id="rId65" xr:uid="{877D1D39-2E8E-4F3D-9A18-8AC0DCF04EB7}"/>
+    <hyperlink ref="C9" r:id="rId66" xr:uid="{E0EB2BE3-BBB8-4B30-8F67-AF2919B3370D}"/>
+    <hyperlink ref="C182" r:id="rId67" xr:uid="{0578DF99-D39A-4EE0-9114-078D9F9CC0CA}"/>
+    <hyperlink ref="C183" r:id="rId68" xr:uid="{677F4BDA-A403-4B7B-AF04-A790F441BC0A}"/>
+    <hyperlink ref="C142" r:id="rId69" xr:uid="{BB6D1702-527B-4839-8856-4AC8CA16E84C}"/>
+    <hyperlink ref="C184" r:id="rId70" xr:uid="{42D28672-BB29-41A4-A2FF-03B6C7DD3DBD}"/>
+    <hyperlink ref="C185" r:id="rId71" xr:uid="{DB0FFD1C-2A18-4F69-B548-B43313B2437D}"/>
+    <hyperlink ref="C23" r:id="rId72" xr:uid="{C53B806A-F8D4-4B99-B333-084688C703D9}"/>
+    <hyperlink ref="C143" r:id="rId73" xr:uid="{BC6A6FE7-00EF-473E-8AE5-93C38DF40B36}"/>
+    <hyperlink ref="C10" r:id="rId74" xr:uid="{C3315510-0C5E-4596-8A69-9102D1DEC835}"/>
+    <hyperlink ref="C31" r:id="rId75" xr:uid="{2577DC56-FFC8-41AE-A1D8-2FA54D0B468F}"/>
+    <hyperlink ref="C186" r:id="rId76" xr:uid="{EEAC362E-5C2B-4C29-A830-CF0F5822A341}"/>
+    <hyperlink ref="C32" r:id="rId77" xr:uid="{099C4215-6034-45F4-A261-609CE8ABB661}"/>
+    <hyperlink ref="C70" r:id="rId78" xr:uid="{D3CD9893-8196-42EE-A87A-ADBF9ABC8864}"/>
+    <hyperlink ref="C71" r:id="rId79" xr:uid="{ACFDB10E-86F4-4DCF-81F3-E6F355904BE4}"/>
+    <hyperlink ref="C8" r:id="rId80" xr:uid="{24ABD6F5-EDB6-4A35-89CC-9CC3239F128A}"/>
+    <hyperlink ref="C107" r:id="rId81" xr:uid="{9107394E-299B-457F-AAF1-B288D124E0FA}"/>
+    <hyperlink ref="C11" r:id="rId82" xr:uid="{4FDD9BEA-2661-454F-B290-4D986F72EEB7}"/>
+    <hyperlink ref="C227" r:id="rId83" xr:uid="{A86FA296-A651-4238-B613-4A3CE187CAF4}"/>
+    <hyperlink ref="C72" r:id="rId84" xr:uid="{5904D274-BC05-45B7-8B48-D9FA4D802723}"/>
+    <hyperlink ref="C27" r:id="rId85" xr:uid="{D116F4DB-0987-4F91-A457-F8CE5C121EB5}"/>
+    <hyperlink ref="C108" r:id="rId86" xr:uid="{F4947988-889C-4289-8FD8-29CF9A003E03}"/>
+    <hyperlink ref="C57" r:id="rId87" xr:uid="{1B169F0F-B755-4F89-896C-E139322C473B}"/>
+    <hyperlink ref="C187" r:id="rId88" xr:uid="{8F9FF674-51AC-4D76-B285-59D5D512A1FB}"/>
+    <hyperlink ref="C6" r:id="rId89" xr:uid="{86F72EEE-2839-4542-A04F-E0691D539A5E}"/>
+    <hyperlink ref="C116" r:id="rId90" xr:uid="{FCB68FAD-B3D0-4A78-82DB-C03B04716B28}"/>
+    <hyperlink ref="C144" r:id="rId91" xr:uid="{CB0E2A92-43D5-4962-86BC-958928253A3E}"/>
+    <hyperlink ref="C33" r:id="rId92" xr:uid="{53C14D1D-3846-405F-8F82-3C22AF1A718B}"/>
+    <hyperlink ref="C97" r:id="rId93" xr:uid="{F2BD0BBF-D592-45FE-B551-C1680F6F48AC}"/>
+    <hyperlink ref="C73" r:id="rId94" xr:uid="{0679E9F3-3917-4EB7-B067-900860481148}"/>
+    <hyperlink ref="C225" r:id="rId95" xr:uid="{7B42D995-2F4D-4792-8560-0166D2A7C454}"/>
+    <hyperlink ref="C17" r:id="rId96" xr:uid="{C0391D98-2489-4497-82AC-4C28A84BE03A}"/>
+    <hyperlink ref="C34" r:id="rId97" xr:uid="{635201BB-E0AB-4427-9BAA-8DCAB2D98EC0}"/>
+    <hyperlink ref="C58" r:id="rId98" xr:uid="{E4521DE8-D40E-473C-8E8C-D81DD7DA8CFF}"/>
+    <hyperlink ref="C80" r:id="rId99" xr:uid="{D1ED7E49-D3FF-4711-BD89-59C4C3DF0CC8}"/>
+    <hyperlink ref="C98" r:id="rId100" xr:uid="{A85C2B26-59CB-4FCF-8BEA-40A8E6A8D095}"/>
+    <hyperlink ref="C92" r:id="rId101" xr:uid="{6F3AB2DA-D3B7-424C-92C1-F777F76903F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B40397593E34884EA6F3D09A2EF07D30" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="421c5f6b899d886dc42a52f72f4b2df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0f527b5d-406d-463f-8c0a-6baad7b98bf2" xmlns:ns4="41b2cf37-30ed-49ca-a83c-f34638589591" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29a27d49b6d71079d066ad2d36c40cb2" ns3:_="" ns4:_="">
     <xsd:import namespace="0f527b5d-406d-463f-8c0a-6baad7b98bf2"/>
@@ -7209,15 +7215,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7227,6 +7224,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8086C7DC-4DCC-4770-A071-E1C4D4EE60B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40686872-35DF-406E-B15C-3CA9901A7A3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7241,14 +7246,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8086C7DC-4DCC-4770-A071-E1C4D4EE60B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
